--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi1-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi1-Adam22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Adam22</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06499350000000001</v>
+        <v>0.000409</v>
       </c>
       <c r="H2">
-        <v>0.129987</v>
+        <v>0.001227</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.164521319388576</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.228024530756365</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.319612666666667</v>
+        <v>1.507281333333333</v>
       </c>
       <c r="N2">
-        <v>9.958838</v>
+        <v>4.521844</v>
       </c>
       <c r="O2">
-        <v>0.1773188829476472</v>
+        <v>0.2777659256678391</v>
       </c>
       <c r="P2">
-        <v>0.2112475282640173</v>
+        <v>0.2908185693226504</v>
       </c>
       <c r="Q2">
-        <v>0.215753245851</v>
+        <v>0.0006164780653333333</v>
       </c>
       <c r="R2">
-        <v>1.294519475106</v>
+        <v>0.005548302588</v>
       </c>
       <c r="S2">
-        <v>0.1773188829476472</v>
+        <v>0.04569841657206202</v>
       </c>
       <c r="T2">
-        <v>0.2112475282640173</v>
+        <v>0.06631376780503477</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06499350000000001</v>
+        <v>0.000409</v>
       </c>
       <c r="H3">
-        <v>0.129987</v>
+        <v>0.001227</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.164521319388576</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.228024530756365</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.676898</v>
       </c>
       <c r="O3">
-        <v>0.0654678232613522</v>
+        <v>0.2258629392248442</v>
       </c>
       <c r="P3">
-        <v>0.07799460280194422</v>
+        <v>0.2364765825413957</v>
       </c>
       <c r="Q3">
-        <v>0.079658156721</v>
+        <v>0.0005012837606666666</v>
       </c>
       <c r="R3">
-        <v>0.477948940326</v>
+        <v>0.004511553846</v>
       </c>
       <c r="S3">
-        <v>0.0654678232613522</v>
+        <v>0.03715926876225312</v>
       </c>
       <c r="T3">
-        <v>0.07799460280194422</v>
+        <v>0.05392246176887056</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06499350000000001</v>
+        <v>0.000409</v>
       </c>
       <c r="H4">
-        <v>0.129987</v>
+        <v>0.001227</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.164521319388576</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.228024530756365</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.216913333333333</v>
+        <v>0.9373149999999999</v>
       </c>
       <c r="N4">
-        <v>6.65074</v>
+        <v>2.811945</v>
       </c>
       <c r="O4">
-        <v>0.1184176093210107</v>
+        <v>0.1727309712259096</v>
       </c>
       <c r="P4">
-        <v>0.1410759353778654</v>
+        <v>0.1808478624901656</v>
       </c>
       <c r="Q4">
-        <v>0.14408495673</v>
+        <v>0.000383361835</v>
       </c>
       <c r="R4">
-        <v>0.8645097403800001</v>
+        <v>0.003450256515</v>
       </c>
       <c r="S4">
-        <v>0.1184176093210107</v>
+        <v>0.0284179272853568</v>
       </c>
       <c r="T4">
-        <v>0.1410759353778654</v>
+        <v>0.04123774898261163</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06499350000000001</v>
+        <v>0.000409</v>
       </c>
       <c r="H5">
-        <v>0.129987</v>
+        <v>0.001227</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.164521319388576</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.228024530756365</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.020457499999999</v>
+        <v>0.730656</v>
       </c>
       <c r="N5">
-        <v>18.040915</v>
+        <v>1.461312</v>
       </c>
       <c r="O5">
-        <v>0.4818325534294442</v>
+        <v>0.1346472856105345</v>
       </c>
       <c r="P5">
-        <v>0.3826850784570683</v>
+        <v>0.0939830443451877</v>
       </c>
       <c r="Q5">
-        <v>0.58627110452625</v>
+        <v>0.000298838304</v>
       </c>
       <c r="R5">
-        <v>2.345084418105</v>
+        <v>0.001793029824</v>
       </c>
       <c r="S5">
-        <v>0.4818325534294442</v>
+        <v>0.02215234908073557</v>
       </c>
       <c r="T5">
-        <v>0.3826850784570683</v>
+        <v>0.02143043958586607</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.06499350000000001</v>
+        <v>0.000409</v>
       </c>
       <c r="H6">
-        <v>0.129987</v>
+        <v>0.001227</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.164521319388576</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.228024530756365</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,338 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.938529666666666</v>
+        <v>1.025559333333333</v>
       </c>
       <c r="N6">
-        <v>8.815588999999999</v>
+        <v>3.076678</v>
       </c>
       <c r="O6">
-        <v>0.1569631310405457</v>
+        <v>0.1889928782708727</v>
       </c>
       <c r="P6">
-        <v>0.1869968550991049</v>
+        <v>0.1978739413006007</v>
       </c>
       <c r="Q6">
-        <v>0.1909853278905</v>
+        <v>0.0004194537673333334</v>
       </c>
       <c r="R6">
-        <v>1.145911967343</v>
+        <v>0.003775083906000001</v>
       </c>
       <c r="S6">
-        <v>0.1569631310405457</v>
+        <v>0.03109335768816851</v>
       </c>
       <c r="T6">
-        <v>0.1869968550991049</v>
+        <v>0.04512011261398199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.002077</v>
+      </c>
+      <c r="H7">
+        <v>0.004154</v>
+      </c>
+      <c r="I7">
+        <v>0.8354786806114239</v>
+      </c>
+      <c r="J7">
+        <v>0.771975469243635</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.507281333333333</v>
+      </c>
+      <c r="N7">
+        <v>4.521844</v>
+      </c>
+      <c r="O7">
+        <v>0.2777659256678391</v>
+      </c>
+      <c r="P7">
+        <v>0.2908185693226504</v>
+      </c>
+      <c r="Q7">
+        <v>0.003130623329333333</v>
+      </c>
+      <c r="R7">
+        <v>0.018783739976</v>
+      </c>
+      <c r="S7">
+        <v>0.2320675090957771</v>
+      </c>
+      <c r="T7">
+        <v>0.2245048015176157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.002077</v>
+      </c>
+      <c r="H8">
+        <v>0.004154</v>
+      </c>
+      <c r="I8">
+        <v>0.8354786806114239</v>
+      </c>
+      <c r="J8">
+        <v>0.771975469243635</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.225632666666667</v>
+      </c>
+      <c r="N8">
+        <v>3.676898</v>
+      </c>
+      <c r="O8">
+        <v>0.2258629392248442</v>
+      </c>
+      <c r="P8">
+        <v>0.2364765825413957</v>
+      </c>
+      <c r="Q8">
+        <v>0.002545639048666666</v>
+      </c>
+      <c r="R8">
+        <v>0.015273834292</v>
+      </c>
+      <c r="S8">
+        <v>0.188703670462591</v>
+      </c>
+      <c r="T8">
+        <v>0.1825541207725251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.002077</v>
+      </c>
+      <c r="H9">
+        <v>0.004154</v>
+      </c>
+      <c r="I9">
+        <v>0.8354786806114239</v>
+      </c>
+      <c r="J9">
+        <v>0.771975469243635</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.9373149999999999</v>
+      </c>
+      <c r="N9">
+        <v>2.811945</v>
+      </c>
+      <c r="O9">
+        <v>0.1727309712259096</v>
+      </c>
+      <c r="P9">
+        <v>0.1808478624901656</v>
+      </c>
+      <c r="Q9">
+        <v>0.001946803255</v>
+      </c>
+      <c r="R9">
+        <v>0.01168081953</v>
+      </c>
+      <c r="S9">
+        <v>0.1443130439405527</v>
+      </c>
+      <c r="T9">
+        <v>0.139610113507554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.002077</v>
+      </c>
+      <c r="H10">
+        <v>0.004154</v>
+      </c>
+      <c r="I10">
+        <v>0.8354786806114239</v>
+      </c>
+      <c r="J10">
+        <v>0.771975469243635</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.730656</v>
+      </c>
+      <c r="N10">
+        <v>1.461312</v>
+      </c>
+      <c r="O10">
+        <v>0.1346472856105345</v>
+      </c>
+      <c r="P10">
+        <v>0.0939830443451877</v>
+      </c>
+      <c r="Q10">
+        <v>0.001517572512</v>
+      </c>
+      <c r="R10">
+        <v>0.006070290048</v>
+      </c>
+      <c r="S10">
+        <v>0.1124949365297989</v>
+      </c>
+      <c r="T10">
+        <v>0.07255260475932164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.002077</v>
+      </c>
+      <c r="H11">
+        <v>0.004154</v>
+      </c>
+      <c r="I11">
+        <v>0.8354786806114239</v>
+      </c>
+      <c r="J11">
+        <v>0.771975469243635</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.025559333333333</v>
+      </c>
+      <c r="N11">
+        <v>3.076678</v>
+      </c>
+      <c r="O11">
+        <v>0.1889928782708727</v>
+      </c>
+      <c r="P11">
+        <v>0.1978739413006007</v>
+      </c>
+      <c r="Q11">
+        <v>0.002130086735333334</v>
+      </c>
+      <c r="R11">
+        <v>0.012780520412</v>
+      </c>
+      <c r="S11">
+        <v>0.1578995205827042</v>
+      </c>
+      <c r="T11">
+        <v>0.1527538286866187</v>
       </c>
     </row>
   </sheetData>
